--- a/Narrative R&D/创新关键词_R&D_word_list.xlsx
+++ b/Narrative R&D/创新关键词_R&D_word_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4526F4C-B086-8C4B-B11E-3F48BAFF3FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69984EE-5C4B-F84D-BF9D-CC48BBBB64D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="26040" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,7 +1227,7 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>使用请注明数据来源和相关引用：
+    <t>读者如需使用本项目词典，请引用如下参考文献：
 Huang, W., &amp; Liang, Q., Narrative R&amp;D disclosure and insider trading profitability: Evidence from China. Journal of Accounting and Public Policy, 2024 (45): 107-210.
 Liang, Q., Yin, Y., Liu, Y., &amp; Zhao, Q. (2024). Narrative R&amp;D disclosure and bank loans: Evidence from China. Finance Research Letters, 62, 105259.</t>
   </si>
@@ -1279,14 +1279,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:A400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1578,18 +1578,18 @@
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>396</v>
